--- a/evulation_ss2022.xlsx
+++ b/evulation_ss2022.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
   <si>
     <t>Person making the evaluation</t>
   </si>
@@ -128,12 +128,6 @@
   </si>
   <si>
     <t>7.2</t>
-  </si>
-  <si>
-    <t>The high accuracy doesn't depend only on the classifier, but also on the quality of the input data, among other things. Please correct. 
-"examin" &gt;&gt; spelling error
-Add conclusion to abstract
-Generally, you would have approximately 2 sentences about the introduction, 1 sentence objectives, 1-2 senteces methods, 2-3 sentences about results, and 1 sentence about conclusion</t>
   </si>
   <si>
     <t xml:space="preserve">Missing citations to the literature referenced in this section
@@ -277,6 +271,15 @@
   </si>
   <si>
     <t>Odaci Salim</t>
+  </si>
+  <si>
+    <t>The high accuracy doesn't depend only on the classifier, but also on the quality of the input data, among other things. Please correct. 
+"examin" &gt;&gt; spelling error
+Add conclusion to abstract
+Generally, you would have approximately 2 sentences about the introduction, 1 sentence objectives, 1-2 sentences methods, 2-3 sentences about results, and 1 sentence about conclusion</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -518,12 +521,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -535,15 +532,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -565,6 +553,21 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,7 +852,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,14 +863,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21"/>
+      <c r="A1" s="16"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -880,11 +883,11 @@
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -897,9 +900,9 @@
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="18"/>
       <c r="H3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -912,9 +915,9 @@
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="18"/>
       <c r="H4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -927,39 +930,39 @@
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="18"/>
       <c r="H5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="H6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
+    <row r="7" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="H6" s="3" t="s">
+      <c r="B7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="H7" s="3" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="H7" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -972,11 +975,11 @@
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="17" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -989,9 +992,9 @@
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="18"/>
       <c r="H9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1004,39 +1007,39 @@
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="18"/>
       <c r="H10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="H11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="H11" s="3" t="s">
+    <row r="12" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="H12" s="3" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="H12" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1049,9 +1052,9 @@
       <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="18"/>
       <c r="H13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1064,9 +1067,9 @@
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="18"/>
       <c r="H14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1079,41 +1082,41 @@
       <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="18"/>
       <c r="H15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="H16" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9">
-        <v>9</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="H16" s="3" t="s">
+    <row r="17" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>10</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11">
-        <v>10</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1124,9 +1127,9 @@
       <c r="C18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="18"/>
       <c r="H18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1137,9 +1140,9 @@
       <c r="C19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="18"/>
       <c r="H19" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1150,9 +1153,9 @@
       <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="18"/>
       <c r="H20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1163,104 +1166,104 @@
       <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="19"/>
       <c r="H21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H23" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H24" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H25" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H26" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H29" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H30" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H31" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H32" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H33" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H34" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H35" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H38" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H39" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H40" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1276,240 +1279,243 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.5703125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="84.5703125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4">
         <v>1</v>
       </c>
       <c r="B1" s="5">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>2</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>3</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>4</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>5</v>
-      </c>
-      <c r="B5" s="9">
-        <v>4</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
         <v>6</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>6</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="18"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <v>11</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="18"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>15</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="7">
         <v>9</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
         <v>16</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="9">
         <v>10</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>17</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="18"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>18</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>38</v>
+      <c r="D18" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1517,20 +1523,20 @@
         <v>19</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="18"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>20</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1539,12 +1545,264 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="147.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>16</v>
+      </c>
+      <c r="B16" s="9">
+        <v>10</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>18</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>20</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:D6"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="D16:D20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>